--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>82.36</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>164205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>天弘文化新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60.30</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.30</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>164205</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘文化新兴产业股票</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1617,4 +1618,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1673,14 +1716,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.19</v>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1689,14 +1754,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5">
@@ -1705,13 +1876,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1797,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,17 +1809,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1849,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.67</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1844,14 +1887,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1860,14 +1925,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.19</v>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1876,14 +1963,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.7</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1892,13 +2001,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2196,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,17 +2208,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2227,14 +2248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2243,14 +2286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.67</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2259,14 +2324,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2275,14 +2362,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.19</v>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2291,14 +2400,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.7</v>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2307,13 +2438,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
+++ b/数据整理/stocks/A股/上证主板/601952-苏垦农发.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1771,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1941,7 +2052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2187,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
